--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>日期</t>
   </si>
@@ -66,13 +66,55 @@
     <t>数据库表自动生成</t>
   </si>
   <si>
-    <t>1.数据库表自动生成；</t>
+    <t>数据库表自动生成；</t>
   </si>
   <si>
     <t>数据库表生成成功</t>
   </si>
   <si>
     <t>整合其他实体类</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>了解其他模块</t>
+  </si>
+  <si>
+    <t>知道各个模块的功能和作用</t>
+  </si>
+  <si>
+    <t>更改自己的</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>完善自己的实体</t>
+  </si>
+  <si>
+    <t>出现错误</t>
+  </si>
+  <si>
+    <t>找出并修改</t>
+  </si>
+  <si>
+    <t>找出错误</t>
+  </si>
+  <si>
+    <t>成功找出</t>
+  </si>
+  <si>
+    <t>再次运行</t>
+  </si>
+  <si>
+    <t>运行修改后的实体类</t>
+  </si>
+  <si>
+    <t>成功运行</t>
+  </si>
+  <si>
+    <t>再次完善自己的实体</t>
   </si>
   <si>
     <t>周次</t>
@@ -86,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +143,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,6 +202,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -123,27 +226,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -152,30 +235,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,17 +265,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,39 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,43 +295,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,49 +439,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,84 +476,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +486,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,34 +533,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,15 +559,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,165 +578,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,13 +1059,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1122,6 +1157,74 @@
       </c>
       <c r="E5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1149,13 +1252,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -66,55 +66,13 @@
     <t>数据库表自动生成</t>
   </si>
   <si>
-    <t>数据库表自动生成；</t>
+    <t>1.数据库表自动生成；</t>
   </si>
   <si>
     <t>数据库表生成成功</t>
   </si>
   <si>
     <t>整合其他实体类</t>
-  </si>
-  <si>
-    <t>14:00-16:00</t>
-  </si>
-  <si>
-    <t>了解其他模块</t>
-  </si>
-  <si>
-    <t>知道各个模块的功能和作用</t>
-  </si>
-  <si>
-    <t>更改自己的</t>
-  </si>
-  <si>
-    <t>18:00-20:00</t>
-  </si>
-  <si>
-    <t>完善自己的实体</t>
-  </si>
-  <si>
-    <t>出现错误</t>
-  </si>
-  <si>
-    <t>找出并修改</t>
-  </si>
-  <si>
-    <t>找出错误</t>
-  </si>
-  <si>
-    <t>成功找出</t>
-  </si>
-  <si>
-    <t>再次运行</t>
-  </si>
-  <si>
-    <t>运行修改后的实体类</t>
-  </si>
-  <si>
-    <t>成功运行</t>
-  </si>
-  <si>
-    <t>再次完善自己的实体</t>
   </si>
   <si>
     <t>周次</t>
@@ -128,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,68 +101,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,59 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -279,8 +213,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +260,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,7 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +320,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,145 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,32 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,23 +472,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +509,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,159 +537,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1157,74 +1122,6 @@
       </c>
       <c r="E5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>43239</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>43241</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>43242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>43243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1252,13 +1149,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -73,6 +73,63 @@
   </si>
   <si>
     <t>整合其他实体类</t>
+  </si>
+  <si>
+    <t>观看JPA视频</t>
+  </si>
+  <si>
+    <t>观看</t>
+  </si>
+  <si>
+    <t>继续观看学习</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>修改depot</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>观看spring视频</t>
+  </si>
+  <si>
+    <t xml:space="preserve">继续观看 </t>
+  </si>
+  <si>
+    <t>继续观看</t>
+  </si>
+  <si>
+    <t>观看mvc视频</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>配置web文件</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>继续编写</t>
+  </si>
+  <si>
+    <t>继续配置</t>
+  </si>
+  <si>
+    <t>未成功</t>
+  </si>
+  <si>
+    <t>编写web</t>
   </si>
   <si>
     <t>周次</t>
@@ -87,11 +144,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,83 +158,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,31 +240,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -221,31 +287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,37 +310,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,145 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,8 +516,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,16 +567,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,166 +601,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1122,6 +1172,193 @@
       </c>
       <c r="E5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1149,13 +1386,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -73,63 +73,6 @@
   </si>
   <si>
     <t>整合其他实体类</t>
-  </si>
-  <si>
-    <t>观看JPA视频</t>
-  </si>
-  <si>
-    <t>观看</t>
-  </si>
-  <si>
-    <t>继续观看学习</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>18:00-20:00</t>
-  </si>
-  <si>
-    <t>修改depot</t>
-  </si>
-  <si>
-    <t>修改成功</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>观看spring视频</t>
-  </si>
-  <si>
-    <t xml:space="preserve">继续观看 </t>
-  </si>
-  <si>
-    <t>继续观看</t>
-  </si>
-  <si>
-    <t>观看mvc视频</t>
-  </si>
-  <si>
-    <t>继续学习</t>
-  </si>
-  <si>
-    <t>配置web文件</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>继续编写</t>
-  </si>
-  <si>
-    <t>继续配置</t>
-  </si>
-  <si>
-    <t>未成功</t>
-  </si>
-  <si>
-    <t>编写web</t>
   </si>
   <si>
     <t>周次</t>
@@ -144,11 +87,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +101,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -165,9 +138,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,29 +213,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -209,69 +230,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -279,9 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,103 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,79 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,11 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,23 +472,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,22 +508,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,151 +536,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1172,193 +1122,6 @@
       </c>
       <c r="E5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>43239</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>43241</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>43243</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>43245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>43247</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>43248</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>43254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>43256</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>43259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>43262</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>43264</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1386,13 +1149,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>编写web</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>安装jira jenkins软件</t>
+  </si>
+  <si>
+    <t>未安装完成</t>
+  </si>
+  <si>
+    <t>继续安装并掌握使用</t>
+  </si>
+  <si>
+    <t>jira未安装完成</t>
+  </si>
+  <si>
+    <t>继续研究安装</t>
   </si>
   <si>
     <t>周次</t>
@@ -143,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,7 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,22 +205,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +281,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -265,37 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,91 +328,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,91 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +540,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,13 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,30 +606,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -607,154 +625,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1359,6 +1378,40 @@
       </c>
       <c r="E16" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1386,13 +1439,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -130,24 +130,6 @@
   </si>
   <si>
     <t>编写web</t>
-  </si>
-  <si>
-    <t>13:00-16:00</t>
-  </si>
-  <si>
-    <t>安装jira jenkins软件</t>
-  </si>
-  <si>
-    <t>未安装完成</t>
-  </si>
-  <si>
-    <t>继续安装并掌握使用</t>
-  </si>
-  <si>
-    <t>jira未安装完成</t>
-  </si>
-  <si>
-    <t>继续研究安装</t>
   </si>
   <si>
     <t>周次</t>
@@ -161,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,7 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,15 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,16 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -290,30 +273,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,49 +310,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,133 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +522,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -547,6 +559,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,21 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,185 +601,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1093,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1378,40 +1359,6 @@
       </c>
       <c r="E16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>43270</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>43271</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1439,13 +1386,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>继续研究安装</t>
+  </si>
+  <si>
+    <t>编写立项书安装jira</t>
+  </si>
+  <si>
+    <t>立项书完成jira安装完成</t>
+  </si>
+  <si>
+    <t>破解jira</t>
   </si>
   <si>
     <t>周次</t>
@@ -161,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,6 +185,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -184,6 +207,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +236,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,15 +252,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,83 +327,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,6 +337,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,13 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,157 +415,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,8 +542,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,10 +553,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -567,16 +576,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,16 +615,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1412,6 +1421,23 @@
       </c>
       <c r="E18" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1439,13 +1465,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040219_xushuaiyi.xlsx
+++ b/hero/doc/log/log_201608040219_xushuaiyi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>日期</t>
   </si>
@@ -144,19 +144,34 @@
     <t>继续安装并掌握使用</t>
   </si>
   <si>
-    <t>jira未安装完成</t>
+    <t>jenkins未安装完成</t>
   </si>
   <si>
     <t>继续研究安装</t>
   </si>
   <si>
-    <t>编写立项书安装jira</t>
-  </si>
-  <si>
-    <t>立项书完成jira安装完成</t>
+    <t>编写立项书安装jenkins</t>
+  </si>
+  <si>
+    <t>jenkins安装完成</t>
+  </si>
+  <si>
+    <t>完成并提交立项书</t>
+  </si>
+  <si>
+    <t>完成立项书</t>
+  </si>
+  <si>
+    <t>立项书完成</t>
   </si>
   <si>
     <t>破解jira</t>
+  </si>
+  <si>
+    <t>jira完成</t>
+  </si>
+  <si>
+    <t>开始写代码</t>
   </si>
   <si>
     <t>周次</t>
@@ -170,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -184,20 +199,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -206,7 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,9 +254,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,102 +277,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -337,25 +352,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,19 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,127 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +557,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,11 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,21 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,22 +624,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1438,6 +1453,40 @@
       </c>
       <c r="E19" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1465,13 +1514,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
